--- a/results/stock_recruitment.xlsx
+++ b/results/stock_recruitment.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>1763218594.801775</v>
+        <v>2131189209.519208</v>
       </c>
     </row>
     <row r="3">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>1803874438.431305</v>
+        <v>1996070030.511242</v>
       </c>
     </row>
     <row r="4">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>1009763066.615652</v>
+        <v>1225934278.599479</v>
       </c>
     </row>
     <row r="5">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="E5">
-        <v>587203181.0273396</v>
+        <v>772476100.9553949</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>739320816.256789</v>
+        <v>880716795.9077289</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="E7">
-        <v>908426957.9618872</v>
+        <v>1294451877.349769</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="E8">
-        <v>2578265761.20139</v>
+        <v>3273209521.527452</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="E9">
-        <v>1953933998.21985</v>
+        <v>2761908704.267637</v>
       </c>
     </row>
     <row r="10">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="E10">
-        <v>2903201433.705468</v>
+        <v>3437881270.23809</v>
       </c>
     </row>
     <row r="11">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>1456203834.744084</v>
+        <v>1824132549.423184</v>
       </c>
     </row>
     <row r="12">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="E12">
-        <v>887285186.643384</v>
+        <v>1342886505.16142</v>
       </c>
     </row>
     <row r="13">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="E13">
-        <v>1966567538.429088</v>
+        <v>2525835536.001273</v>
       </c>
     </row>
     <row r="14">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="E14">
-        <v>2420542027.314287</v>
+        <v>2544553617.619198</v>
       </c>
     </row>
     <row r="15">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="E15">
-        <v>1323056351.60007</v>
+        <v>1426551350.42554</v>
       </c>
     </row>
     <row r="16">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="E16">
-        <v>1154490935.512479</v>
+        <v>1252422602.001582</v>
       </c>
     </row>
     <row r="17">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="E17">
-        <v>1613144570.358188</v>
+        <v>1580101624.698467</v>
       </c>
     </row>
     <row r="18">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="E18">
-        <v>2707021806.828043</v>
+        <v>2493007861.836544</v>
       </c>
     </row>
     <row r="19">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>2551130330.959492</v>
+        <v>2336955899.780849</v>
       </c>
     </row>
     <row r="20">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="E20">
-        <v>938707381.6504502</v>
+        <v>746618758.7015805</v>
       </c>
     </row>
     <row r="21">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="E21">
-        <v>1343046307.631911</v>
+        <v>636156600.9461595</v>
       </c>
     </row>
     <row r="22">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="E22">
-        <v>808520281.6850743</v>
+        <v>810928572.5470011</v>
       </c>
     </row>
     <row r="23">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="E23">
-        <v>2000080923.478737</v>
+        <v>1896832779.482464</v>
       </c>
     </row>
     <row r="24">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="E24">
-        <v>2295201101.59626</v>
+        <v>2283733516.651238</v>
       </c>
     </row>
     <row r="25">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="E25">
-        <v>1878917632.179225</v>
+        <v>1494514463.522902</v>
       </c>
     </row>
     <row r="26">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="E26">
-        <v>1868120560.242508</v>
+        <v>2264374430.546672</v>
       </c>
     </row>
     <row r="27">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="E27">
-        <v>1695167201.779674</v>
+        <v>1626829036.042399</v>
       </c>
     </row>
     <row r="28">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="E28">
-        <v>2233697572.461155</v>
+        <v>1921284947.617015</v>
       </c>
     </row>
     <row r="29">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="E29">
-        <v>1554079601.173552</v>
+        <v>1568172438.185875</v>
       </c>
     </row>
     <row r="30">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="E30">
-        <v>1185993879.780524</v>
+        <v>1084448908.864102</v>
       </c>
     </row>
     <row r="31">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="E31">
-        <v>2132787441.693</v>
+        <v>1677019772.88577</v>
       </c>
     </row>
     <row r="32">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="E32">
-        <v>2239766857.253205</v>
+        <v>1969026529.05234</v>
       </c>
     </row>
     <row r="33">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="E33">
-        <v>1993536248.372235</v>
+        <v>2122624846.609889</v>
       </c>
     </row>
     <row r="34">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="E34">
-        <v>2702146234.533663</v>
+        <v>1719621813.176892</v>
       </c>
     </row>
     <row r="35">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="E35">
-        <v>1227584773.83182</v>
+        <v>1812071094.593312</v>
       </c>
     </row>
   </sheetData>
